--- a/assets/templates/RS0003-discrete-template.a205.xlsx
+++ b/assets/templates/RS0003-discrete-template.a205.xlsx
@@ -88,95 +88,130 @@
   <commentList>
     <comment authorId="0" ref="B4" shapeId="0">
       <text>
-        <t>Representation specification version</t>
+        <t>ASHRAE 205 standard version</t>
       </text>
     </comment>
     <comment authorId="0" ref="B5" shapeId="0">
       <text>
+        <t>ASHRAE 205 schema version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6" shapeId="0">
+      <text>
         <t>Representation specification identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
+    <comment authorId="0" ref="B7" shapeId="0">
+      <text>
+        <t>Free-form description of equipment (suitable for display)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8" shapeId="0">
       <text>
         <t>Unique equipment identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment authorId="0" ref="B9" shapeId="0">
       <text>
         <t>Date of publication</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
-      <text>
-        <t>Free-form version identifier for this representation</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
-      <text>
-        <t>Free-form description of equipment (suitable for display)</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="B10" shapeId="0">
       <text>
+        <t>Integer version identifier for the data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11" shapeId="0">
+      <text>
         <t>Free-form identification of the source of this data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B11" shapeId="0">
+    <comment authorId="0" ref="B12" shapeId="0">
       <text>
         <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B12" shapeId="0">
+    <comment authorId="0" ref="B13" shapeId="0">
       <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B17" shapeId="0">
+    <comment authorId="0" ref="B18" shapeId="0">
       <text>
         <t>Name of the assembly/unit manufacturer</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B18" shapeId="0">
+    <comment authorId="0" ref="B19" shapeId="0">
       <text>
         <t>Model number of the assembly / unit</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
+    <comment authorId="0" ref="B20" shapeId="0">
       <text>
         <t>Assembly includes a motor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
+    <comment authorId="0" ref="B21" shapeId="0">
       <text>
         <t>Fan assembly is enclosed</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B22" shapeId="0">
+    <comment authorId="0" ref="B23" shapeId="0">
       <text>
         <t>Motor and impeller are directly coupled</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
+    <comment authorId="0" ref="B24" shapeId="0">
       <text>
         <t>Number of impellers included in the fan assembly</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B26" shapeId="0">
+    <comment authorId="0" ref="B27" shapeId="0">
       <text>
         <t>Nominal air flow rate for fan assembly</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B27" shapeId="0">
+    <comment authorId="0" ref="B28" shapeId="0">
       <text>
         <t>Additional static pressure drop if cooling coil component is collecting condensate</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B28" shapeId="0">
+    <comment authorId="0" ref="B29" shapeId="0">
       <text>
         <t>Fraction of motor heat into the air stream</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B29" shapeId="0">
+    <comment authorId="0" ref="B30" shapeId="0">
+      <text>
+        <t>Maximum power draw of the fan motor</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B31" shapeId="0">
+      <text>
+        <t>Maximum impeller rotational speed</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B32" shapeId="0">
+      <text>
+        <t>Minimum impeller rotational speed</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A33" shapeId="0">
+      <text>
+        <t xml:space="preserve">A description of the maximum system curve for system selection </t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B34" shapeId="0">
+      <text>
+        <t>Volumetric air flow rate through an air distribution system</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B35" shapeId="0">
+      <text>
+        <t>Static pressure drop of an air distribution system</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B36" shapeId="0">
       <text>
         <t>Assembly power draw when fan is not operating</t>
       </text>
@@ -529,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,12 +625,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>schema_version</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
+          <t>standard_version</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -607,12 +637,12 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>RS_ID</t>
+          <t>schema_version</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RS0003</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -624,7 +654,12 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>RS_ID</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RS0003</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -636,7 +671,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>data_timestamp</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -648,31 +683,43 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>data_version</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n"/>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n"/>
+          <t>data_timestamp</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>data_source</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n"/>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>disclaimer</t>
+          <t>data_source</t>
         </is>
       </c>
       <c r="E11" s="3" t="n"/>
@@ -680,35 +727,35 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
+          <t>disclaimer</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0003</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n"/>
+          <t>ASHRAE205.RS_instance</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0003.description</t>
+          <t>ASHRAE205.RS_instance.RS0003</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -716,27 +763,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>ASHRAE205.RS_instance.RS0003.description</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>ASHRAE205.RS_instance.RS0003.description.product_information</t>
         </is>
       </c>
-      <c r="E16" s="3" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                manufacturer</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                model_number</t>
+          <t xml:space="preserve">                manufacturer</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -748,7 +791,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">                has_motor</t>
+          <t xml:space="preserve">                model_number</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -760,7 +803,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">                enclosed</t>
+          <t xml:space="preserve">                has_motor</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -772,15 +815,19 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                impeller_type</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n"/>
+          <t xml:space="preserve">                enclosed</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">                direct_drive_impeller</t>
+          <t xml:space="preserve">                impeller_type</t>
         </is>
       </c>
       <c r="E22" s="3" t="n"/>
@@ -788,20 +835,15 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
+          <t xml:space="preserve">                direct_drive_impeller</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
           <t xml:space="preserve">                number_of_impellers</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0003.description.assembly_components</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>$assembly_components</t>
         </is>
       </c>
       <c r="E24" s="3" t="n"/>
@@ -809,24 +851,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>ASHRAE205.RS_instance.RS0003.description.assembly_components</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$assembly_components</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>ASHRAE205.RS_instance.RS0003.performance</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            nominal_volumetric_air_flow_rate</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>m3/s</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -838,12 +876,12 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">            wet_coil_pressure_drop</t>
+          <t xml:space="preserve">            nominal_volumetric_air_flow_rate</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>m3/s</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -855,12 +893,12 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">            motor_heat_fraction</t>
+          <t xml:space="preserve">            wet_coil_pressure_drop</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Pa</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -872,12 +910,12 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">            standby_power</t>
+          <t xml:space="preserve">            motor_heat_fraction</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -889,12 +927,12 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">            performance_map_type</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>DISCRETE</t>
+          <t xml:space="preserve">            maximum_power</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -906,44 +944,167 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
+          <t xml:space="preserve">            maximum_impeller_speed</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>rev/s</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            minimum_impeller_speed</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>rev/s</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0003.performance.maximum_system_curve</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                volumetric_air_flow_rate</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$volumetric_air_flow_rate</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                static_pressure_difference</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$static_pressure_difference</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            standby_power</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            performance_map_type</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DISCRETE</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
           <t xml:space="preserve">            speed_control_type</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>ASHRAE205.RS_instance.RS0003.performance.performance_map</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>$performance_map</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
-      <formula1>"RS0001,RS0002,RS0003"</formula1>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+      <formula1>"PPR2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
       <formula1>"CENTRIFUGAL_FORWARD_CURVED,CENTRIFUGAL_BACKWARD_CURVED,CENTRIFUGAL_AIR_FOIL,AXIAL,PROPELLER"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C30" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C37" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C31" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C38" type="list">
       <formula1>"FIXED,VARIABLE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/assets/templates/RS0003-discrete-template.a205.xlsx
+++ b/assets/templates/RS0003-discrete-template.a205.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="RS0003" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="assembly_components" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="performance_map" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="motor_representation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="drive_representation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="performance_map" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -136,84 +138,79 @@
         <t>Additional Information</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B17" shapeId="0">
+      <text>
+        <t>Name of the assembly/unit manufacturer</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B18" shapeId="0">
       <text>
-        <t>Name of the assembly/unit manufacturer</t>
+        <t>Model number of the assembly / unit</t>
       </text>
     </comment>
     <comment authorId="0" ref="B19" shapeId="0">
       <text>
-        <t>Model number of the assembly / unit</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
-      <text>
-        <t>Assembly includes a motor</t>
+        <t>Fan assembly is enclosed</t>
       </text>
     </comment>
     <comment authorId="0" ref="B21" shapeId="0">
       <text>
-        <t>Fan assembly is enclosed</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
-      <text>
-        <t>Motor and impeller are directly coupled</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B24" shapeId="0">
+        <t>The fan impeller is driven by a belt and pulley system</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B22" shapeId="0">
       <text>
         <t>Number of impellers included in the fan assembly</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B25" shapeId="0">
+      <text>
+        <t>Nominal air flow rate for fan assembly</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B26" shapeId="0">
+      <text>
+        <t>Additional static pressure drop if cooling coil component is collecting condensate</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B27" shapeId="0">
       <text>
-        <t>Nominal air flow rate for fan assembly</t>
+        <t>Fraction of efficiency losses added as heat transferred into the air stream</t>
       </text>
     </comment>
     <comment authorId="0" ref="B28" shapeId="0">
       <text>
-        <t>Additional static pressure drop if cooling coil component is collecting condensate</t>
+        <t>Maximum impeller rotational speed</t>
       </text>
     </comment>
     <comment authorId="0" ref="B29" shapeId="0">
       <text>
-        <t>Fraction of motor heat into the air stream</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B30" shapeId="0">
-      <text>
-        <t>Maximum power draw of the fan motor</t>
+        <t>Minimum impeller rotational speed</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A30" shapeId="0">
+      <text>
+        <t>A description of the stability area for system selection</t>
       </text>
     </comment>
     <comment authorId="0" ref="B31" shapeId="0">
       <text>
-        <t>Maximum impeller rotational speed</t>
+        <t>Volumetric air flow rate through an air distribution system</t>
       </text>
     </comment>
     <comment authorId="0" ref="B32" shapeId="0">
       <text>
-        <t>Minimum impeller rotational speed</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A33" shapeId="0">
-      <text>
-        <t xml:space="preserve">A description of the maximum system curve for system selection </t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B34" shapeId="0">
-      <text>
-        <t>Volumetric air flow rate through an air distribution system</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B35" shapeId="0">
-      <text>
         <t>Static pressure drop of an air distribution system</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B36" shapeId="0">
-      <text>
-        <t>Assembly power draw when fan is not operating</t>
+    <comment authorId="0" ref="A35" shapeId="0">
+      <text>
+        <t>Base schema for ASHRAE 205 representations</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A36" shapeId="0">
+      <text>
+        <t>Data group describing fan performance in terms of speed setting, static pressure, air flow, and power</t>
       </text>
     </comment>
   </commentList>
@@ -246,9 +243,204 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
+    <comment authorId="0" ref="B4" shapeId="0">
+      <text>
+        <t>ASHRAE 205 standard version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B5" shapeId="0">
+      <text>
+        <t>ASHRAE 205 schema version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6" shapeId="0">
+      <text>
+        <t>Representation specification identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B7" shapeId="0">
+      <text>
+        <t>Free-form description of equipment (suitable for display)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8" shapeId="0">
+      <text>
+        <t>Unique equipment identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B9" shapeId="0">
+      <text>
+        <t>Date of publication</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B10" shapeId="0">
+      <text>
+        <t>Integer version identifier for the data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11" shapeId="0">
+      <text>
+        <t>Free-form identification of the source of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B12" shapeId="0">
+      <text>
+        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B13" shapeId="0">
+      <text>
+        <t>Additional Information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B17" shapeId="0">
+      <text>
+        <t>Name of the manufacturer</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B18" shapeId="0">
+      <text>
+        <t>Model number</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B19" shapeId="0">
+      <text>
+        <t>Input voltage</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B20" shapeId="0">
+      <text>
+        <t>Input frequency</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B21" shapeId="0">
+      <text>
+        <t>Number of poles</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B23" shapeId="0">
+      <text>
+        <t>Maximum operational input power to the motor</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B24" shapeId="0">
+      <text>
+        <t>Power draw when motor is not operating</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A25" shapeId="0">
+      <text>
+        <t>Base schema for ASHRAE 205 representations</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A26" shapeId="0">
+      <text>
+        <t>Data group describing motor performance when operating</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B4" shapeId="0">
+      <text>
+        <t>ASHRAE 205 standard version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B5" shapeId="0">
+      <text>
+        <t>ASHRAE 205 schema version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6" shapeId="0">
+      <text>
+        <t>Representation specification identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B7" shapeId="0">
+      <text>
+        <t>Free-form description of equipment (suitable for display)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8" shapeId="0">
+      <text>
+        <t>Unique equipment identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B9" shapeId="0">
+      <text>
+        <t>Date of publication</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B10" shapeId="0">
+      <text>
+        <t>Integer version identifier for the data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11" shapeId="0">
+      <text>
+        <t>Free-form identification of the source of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B12" shapeId="0">
+      <text>
+        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B13" shapeId="0">
+      <text>
+        <t>Additional Information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B17" shapeId="0">
+      <text>
+        <t>Name of the manufacturer</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B18" shapeId="0">
+      <text>
+        <t>Model number</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B20" shapeId="0">
+      <text>
+        <t>Maximum power draw of the drive</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B21" shapeId="0">
+      <text>
+        <t>Power draw when the motor is not operating</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A23" shapeId="0">
+      <text>
+        <t>Data group describing drive performance when operating</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
     <comment authorId="0" ref="A2" shapeId="0">
       <text>
         <t>Data group describing grid variables for discrete fan performance</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B2" shapeId="0">
+      <text>
+        <t>Data group describing lookup variables for motor performance</t>
       </text>
     </comment>
     <comment authorId="0" ref="A3" shapeId="0">
@@ -564,7 +756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,7 +947,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0003</t>
+          <t>ASHRAE205.RS_instance.description</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -763,23 +955,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0003.description</t>
+          <t>ASHRAE205.RS_instance.description.product_information</t>
         </is>
       </c>
       <c r="E16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0003.description.product_information</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            manufacturer</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                manufacturer</t>
+          <t xml:space="preserve">            model_number</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -791,7 +987,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">                model_number</t>
+          <t xml:space="preserve">            is_enclosed</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -803,68 +999,78 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">                has_motor</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t xml:space="preserve">            impeller_type</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                enclosed</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t xml:space="preserve">            has_belt_drive</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">                impeller_type</t>
+          <t xml:space="preserve">            number_of_impellers</t>
         </is>
       </c>
       <c r="E22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                direct_drive_impeller</t>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.description.assembly_components</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$assembly_components</t>
         </is>
       </c>
       <c r="E23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                number_of_impellers</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="n"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0003.description.assembly_components</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>$assembly_components</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="n"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        nominal_volumetric_air_flow_rate</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0003.performance</t>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        wet_coil_pressure_drop</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Pa</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -876,12 +1082,12 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">            nominal_volumetric_air_flow_rate</t>
+          <t xml:space="preserve">        heat_loss_fraction</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>m3/s</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -893,12 +1099,12 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">            wet_coil_pressure_drop</t>
+          <t xml:space="preserve">        maximum_impeller_speed</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>rev/s</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -910,12 +1116,12 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">            motor_heat_fraction</t>
+          <t xml:space="preserve">        minimum_impeller_speed</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>rev/s</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -925,31 +1131,27 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            maximum_power</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.stability_curve</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">            maximum_impeller_speed</t>
+          <t xml:space="preserve">            volumetric_air_flow_rate</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$volumetric_air_flow_rate</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>rev/s</t>
+          <t>m3/s</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -961,12 +1163,17 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">            minimum_impeller_speed</t>
+          <t xml:space="preserve">            static_pressure_difference</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$static_pressure_difference</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rev/s</t>
+          <t>Pa</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -976,27 +1183,26 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0003.performance.maximum_system_curve</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="n"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        performance_map_type</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DISCRETE</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">                volumetric_air_flow_rate</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>$volumetric_air_flow_rate</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>m3/s</t>
+          <t xml:space="preserve">        speed_control_type</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1006,85 +1212,30 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                static_pressure_difference</t>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.motor_representation</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$static_pressure_difference</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>$motor_representation</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            standby_power</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>W</t>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.performance_map</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$performance_map</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            performance_map_type</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>DISCRETE</t>
-        </is>
-      </c>
-      <c r="E37" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            speed_control_type</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0003.performance.performance_map</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>$performance_map</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -1096,15 +1247,15 @@
       <formula1>"PPR2"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C20" type="list">
       <formula1>"CENTRIFUGAL_FORWARD_CURVED,CENTRIFUGAL_BACKWARD_CURVED,CENTRIFUGAL_AIR_FOIL,AXIAL,PROPELLER"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C37" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C33" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C38" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C34" type="list">
       <formula1>"FIXED,VARIABLE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1130,7 +1281,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0003.description.assembly_components.component_type</t>
+          <t>ASHRAE205.RS_instance.description.assembly_components.component_type</t>
         </is>
       </c>
     </row>
@@ -1158,6 +1309,686 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="50"/>
+    <col customWidth="1" max="3" min="3" width="31"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Data Group</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Data Element</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Required</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                standard_version</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                schema_version</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                RS_ID</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RS0005</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                description</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ID</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                data_timestamp</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                data_version</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                data_source</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                disclaimer</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                notes</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.description</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.description.product_information</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                            manufacturer</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                            model_number</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                            input_voltage</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                            input_frequency</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                            number_of_poles</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        maximum_power</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        standby_power</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$drive_representation</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.performance_map</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$performance_map</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+      <formula1>"PPR2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="50"/>
+    <col customWidth="1" max="3" min="3" width="31"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Data Group</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Data Element</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Required</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                standard_version</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                schema_version</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                RS_ID</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RS0006</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                description</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                ID</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                data_timestamp</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                data_version</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                data_source</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                disclaimer</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                notes</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.description</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.description.product_information</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                            manufacturer</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                            model_number</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                        maximum_power</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                        standby_power</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                        cooling_method</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.performance.performance_map</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$performance_map</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+      <formula1>"PPR2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+      <formula1>"PASSIVE_COOLED,ACTIVE_AIR_COOLED,ACTIVE_LIQUID_COOLED"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1174,7 +2005,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0003.performance.performance_map.grid_variables</t>
+          <t>ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.performance.performance_map.grid_variables</t>
         </is>
       </c>
     </row>
@@ -1182,6 +2013,11 @@
       <c r="A2" s="4" t="inlineStr">
         <is>
           <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/assets/templates/RS0003-discrete-template.a205.xlsx
+++ b/assets/templates/RS0003-discrete-template.a205.xlsx
@@ -1397,7 +1397,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>

--- a/assets/templates/RS0003-discrete-template.a205.xlsx
+++ b/assets/templates/RS0003-discrete-template.a205.xlsx
@@ -1397,7 +1397,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>

--- a/assets/templates/RS0003-discrete-template.a205.xlsx
+++ b/assets/templates/RS0003-discrete-template.a205.xlsx
@@ -380,6 +380,21 @@
     </comment>
     <comment ref="A34" authorId="0" shapeId="0">
       <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="A37" authorId="0" shapeId="0">
+      <text>
         <t>Data group describing fan assembly performance when operating</t>
       </text>
     </comment>
@@ -535,6 +550,21 @@
     </comment>
     <comment ref="A25" authorId="0" shapeId="0">
       <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="0" shapeId="0">
+      <text>
         <t>Data group describing motor performance when operating</t>
       </text>
     </comment>
@@ -645,6 +675,21 @@
     </comment>
     <comment ref="A22" authorId="0" shapeId="0">
       <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0" shapeId="0">
+      <text>
         <t>Data group describing drive performance when operating</t>
       </text>
     </comment>
@@ -683,6 +728,11 @@
         <t>Efficiency of drive</t>
       </text>
     </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <t>The operation state at the operating conditions</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -723,6 +773,11 @@
         <t>Power factor of the motor</t>
       </text>
     </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <t>The operation state at the operating conditions</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -825,6 +880,21 @@
     </comment>
     <comment ref="A21" authorId="0" shapeId="0">
       <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0">
+      <text>
         <t>Data group describing drive performance when operating</t>
       </text>
     </comment>
@@ -858,6 +928,11 @@
         <t>Efficiency of drive</t>
       </text>
     </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>The operation state at the operating conditions</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -901,6 +976,11 @@
     <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <t>Rotational speed of fan impeller</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -1196,7 +1276,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ34"/>
+  <dimension ref="A1:AZ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1397,7 +1477,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1811,17 +1891,58 @@
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n"/>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n"/>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
           <t>performance.performance_map</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n"/>
-      <c r="C34" s="5" t="inlineStr">
+      <c r="B37" s="4" t="n"/>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>$performance_map2</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n"/>
-      <c r="E34" s="6" t="inlineStr">
+      <c r="D37" s="4" t="n"/>
+      <c r="E37" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -1829,19 +1950,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"CENTRIFUGAL_FORWARD_CURVED,CENTRIFUGAL_BACKWARD_CURVED,CENTRIFUGAL_AIR_FOIL,AXIAL,PROPELLER"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C30" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C30" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C31" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C31" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"FIXED,VARIABLE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1851,7 +1972,7 @@
     <hyperlink ref="C29" r:id="rId3"/>
     <hyperlink ref="C32" r:id="rId4"/>
     <hyperlink ref="C33" r:id="rId5"/>
-    <hyperlink ref="C34" r:id="rId6"/>
+    <hyperlink ref="C37" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1995,6 +2116,7 @@
           <t>lookup_variables</t>
         </is>
       </c>
+      <c r="C2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2007,6 +2129,11 @@
           <t>efficiency</t>
         </is>
       </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>operation_state</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2015,6 +2142,11 @@
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2023,10 +2155,12 @@
     <row r="5">
       <c r="A5" s="5" t="n"/>
       <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n"/>
       <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2174,6 +2308,7 @@
       </c>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2201,6 +2336,11 @@
           <t>impeller_rotational_speed</t>
         </is>
       </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>operation_state</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2226,6 +2366,11 @@
       <c r="E4" s="4" t="inlineStr">
         <is>
           <t>rev/s</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2235,6 +2380,7 @@
       <c r="C5" s="5" t="n"/>
       <c r="D5" s="5" t="n"/>
       <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n"/>
@@ -2242,6 +2388,7 @@
       <c r="C6" s="5" t="n"/>
       <c r="D6" s="5" t="n"/>
       <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n"/>
@@ -2249,6 +2396,7 @@
       <c r="C7" s="5" t="n"/>
       <c r="D7" s="5" t="n"/>
       <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n"/>
@@ -2256,6 +2404,7 @@
       <c r="C8" s="5" t="n"/>
       <c r="D8" s="5" t="n"/>
       <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2453,19 +2602,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"COIL,FURNACE,FILTER,HEAT_EXCHANGER,ELECTRIC_RESISTANCE_ELEMENT,DIRECT_EVAPORATIVE,OTHER"</formula1>
     </dataValidation>
-    <dataValidation sqref="A5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"COIL,FURNACE,FILTER,HEAT_EXCHANGER,ELECTRIC_RESISTANCE_ELEMENT,DIRECT_EVAPORATIVE,OTHER"</formula1>
     </dataValidation>
-    <dataValidation sqref="A6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"COIL,FURNACE,FILTER,HEAT_EXCHANGER,ELECTRIC_RESISTANCE_ELEMENT,DIRECT_EVAPORATIVE,OTHER"</formula1>
     </dataValidation>
-    <dataValidation sqref="A7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"COIL,FURNACE,FILTER,HEAT_EXCHANGER,ELECTRIC_RESISTANCE_ELEMENT,DIRECT_EVAPORATIVE,OTHER"</formula1>
     </dataValidation>
-    <dataValidation sqref="A8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"COIL,FURNACE,FILTER,HEAT_EXCHANGER,ELECTRIC_RESISTANCE_ELEMENT,DIRECT_EVAPORATIVE,OTHER"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2800,6 +2949,544 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AZ28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="50" customWidth="1" style="1" min="2" max="2"/>
+    <col width="31" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.motor_representation</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Data Group</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Data Element</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Required</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>performance.motor_representation.metadata</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        data_model</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        schema</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        schema_version</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>2.0.0</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        id</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        description</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        data_timestamp</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        data_version</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        data_source</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        disclaimer</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        notes</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="6" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>performance.motor_representation.description</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="6" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>performance.motor_representation.description.product_information</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="6" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            manufacturer</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="6" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            model_number</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="6" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            nominal_voltage</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n"/>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            nominal_frequency</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>performance.motor_representation.performance</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="4" t="n"/>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        maximum_power</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        standby_power</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        number_of_poles</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="4" t="n"/>
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>performance.motor_representation.performance.drive_representation</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>$drive_representation</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="n"/>
+      <c r="E24" s="6" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>performance.motor_representation.performance.scaling</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="6" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            minimum</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n"/>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            maximum</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n"/>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="6" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>performance.motor_representation.performance.performance_map</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map0</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="n"/>
+      <c r="E28" s="6" t="n"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C24" r:id="rId1"/>
+    <hyperlink ref="C28" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AZ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2865,7 +3552,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.motor_representation</t>
+          <t>performance.motor_representation.performance.drive_representation</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2950,7 +3637,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>performance.motor_representation.metadata</t>
+          <t>performance.motor_representation.performance.drive_representation.metadata</t>
         </is>
       </c>
       <c r="B3" s="4" t="n"/>
@@ -2966,7 +3653,7 @@
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        data_model</t>
+          <t xml:space="preserve">                data_model</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -2981,7 +3668,7 @@
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        schema</t>
+          <t xml:space="preserve">                schema</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -2996,12 +3683,12 @@
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        schema_version</t>
+          <t xml:space="preserve">                schema_version</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -3015,7 +3702,7 @@
       <c r="A7" s="4" t="n"/>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        id</t>
+          <t xml:space="preserve">                id</t>
         </is>
       </c>
       <c r="C7" s="5" t="n"/>
@@ -3030,7 +3717,7 @@
       <c r="A8" s="4" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        description</t>
+          <t xml:space="preserve">                description</t>
         </is>
       </c>
       <c r="C8" s="5" t="n"/>
@@ -3045,7 +3732,7 @@
       <c r="A9" s="4" t="n"/>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        data_timestamp</t>
+          <t xml:space="preserve">                data_timestamp</t>
         </is>
       </c>
       <c r="C9" s="5" t="n"/>
@@ -3060,7 +3747,7 @@
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        data_version</t>
+          <t xml:space="preserve">                data_version</t>
         </is>
       </c>
       <c r="C10" s="5" t="n"/>
@@ -3075,7 +3762,7 @@
       <c r="A11" s="4" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        data_source</t>
+          <t xml:space="preserve">                data_source</t>
         </is>
       </c>
       <c r="C11" s="5" t="n"/>
@@ -3086,7 +3773,7 @@
       <c r="A12" s="4" t="n"/>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        disclaimer</t>
+          <t xml:space="preserve">                disclaimer</t>
         </is>
       </c>
       <c r="C12" s="5" t="n"/>
@@ -3097,7 +3784,7 @@
       <c r="A13" s="4" t="n"/>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        notes</t>
+          <t xml:space="preserve">                notes</t>
         </is>
       </c>
       <c r="C13" s="5" t="n"/>
@@ -3107,7 +3794,7 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>performance.motor_representation.description</t>
+          <t>performance.motor_representation.performance.drive_representation.description</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -3118,7 +3805,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>performance.motor_representation.description.product_information</t>
+          <t>performance.motor_representation.performance.drive_representation.description.product_information</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
@@ -3130,503 +3817,6 @@
       <c r="A16" s="4" t="n"/>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">            manufacturer</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="6" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            model_number</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="4" t="n"/>
-      <c r="E17" s="6" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="n"/>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            nominal_voltage</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="E18" s="6" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            nominal_frequency</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>Hz</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>performance.motor_representation.performance</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="n"/>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        maximum_power</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="n"/>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        standby_power</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E22" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        number_of_poles</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="4" t="n"/>
-      <c r="E23" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="inlineStr">
-        <is>
-          <t>performance.motor_representation.performance.drive_representation</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="n"/>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>$drive_representation</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="6" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="inlineStr">
-        <is>
-          <t>performance.motor_representation.performance.performance_map</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="n"/>
-      <c r="C25" s="5" t="inlineStr">
-        <is>
-          <t>$performance_map0</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="6" t="n"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C24" r:id="rId1"/>
-    <hyperlink ref="C25" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AZ22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" style="1" min="1" max="1"/>
-    <col width="50" customWidth="1" style="1" min="2" max="2"/>
-    <col width="31" customWidth="1" style="1" min="3" max="3"/>
-    <col width="13" customWidth="1" style="1" min="4" max="4"/>
-    <col width="13" customWidth="1" style="1" min="5" max="5"/>
-    <col width="13" customWidth="1" style="1" min="6" max="6"/>
-    <col width="13" customWidth="1" style="1" min="7" max="7"/>
-    <col width="13" customWidth="1" style="1" min="8" max="8"/>
-    <col width="13" customWidth="1" style="1" min="9" max="9"/>
-    <col width="13" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13" customWidth="1" style="1" min="11" max="11"/>
-    <col width="13" customWidth="1" style="1" min="12" max="12"/>
-    <col width="13" customWidth="1" style="1" min="13" max="13"/>
-    <col width="13" customWidth="1" style="1" min="14" max="14"/>
-    <col width="13" customWidth="1" style="1" min="15" max="15"/>
-    <col width="13" customWidth="1" style="1" min="16" max="16"/>
-    <col width="13" customWidth="1" style="1" min="17" max="17"/>
-    <col width="13" customWidth="1" style="1" min="18" max="18"/>
-    <col width="13" customWidth="1" style="1" min="19" max="19"/>
-    <col width="13" customWidth="1" style="1" min="20" max="20"/>
-    <col width="13" customWidth="1" style="1" min="21" max="21"/>
-    <col width="13" customWidth="1" style="1" min="22" max="22"/>
-    <col width="13" customWidth="1" style="1" min="23" max="23"/>
-    <col width="13" customWidth="1" style="1" min="24" max="24"/>
-    <col width="13" customWidth="1" style="1" min="25" max="25"/>
-    <col width="13" customWidth="1" style="1" min="26" max="26"/>
-    <col width="13" customWidth="1" style="1" min="27" max="27"/>
-    <col width="13" customWidth="1" style="1" min="28" max="28"/>
-    <col width="13" customWidth="1" style="1" min="29" max="29"/>
-    <col width="13" customWidth="1" style="1" min="30" max="30"/>
-    <col width="13" customWidth="1" style="1" min="31" max="31"/>
-    <col width="13" customWidth="1" style="1" min="32" max="32"/>
-    <col width="13" customWidth="1" style="1" min="33" max="33"/>
-    <col width="13" customWidth="1" style="1" min="34" max="34"/>
-    <col width="13" customWidth="1" style="1" min="35" max="35"/>
-    <col width="13" customWidth="1" style="1" min="36" max="36"/>
-    <col width="13" customWidth="1" style="1" min="37" max="37"/>
-    <col width="13" customWidth="1" style="1" min="38" max="38"/>
-    <col width="13" customWidth="1" style="1" min="39" max="39"/>
-    <col width="13" customWidth="1" style="1" min="40" max="40"/>
-    <col width="13" customWidth="1" style="1" min="41" max="41"/>
-    <col width="13" customWidth="1" style="1" min="42" max="42"/>
-    <col width="13" customWidth="1" style="1" min="43" max="43"/>
-    <col width="13" customWidth="1" style="1" min="44" max="44"/>
-    <col width="13" customWidth="1" style="1" min="45" max="45"/>
-    <col width="13" customWidth="1" style="1" min="46" max="46"/>
-    <col width="13" customWidth="1" style="1" min="47" max="47"/>
-    <col width="13" customWidth="1" style="1" min="48" max="48"/>
-    <col width="13" customWidth="1" style="1" min="49" max="49"/>
-    <col width="13" customWidth="1" style="1" min="50" max="50"/>
-    <col width="13" customWidth="1" style="1" min="51" max="51"/>
-    <col width="13" customWidth="1" style="1" min="52" max="52"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>performance.motor_representation.performance.drive_representation</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="2" t="n"/>
-      <c r="Q1" s="2" t="n"/>
-      <c r="R1" s="2" t="n"/>
-      <c r="S1" s="2" t="n"/>
-      <c r="T1" s="2" t="n"/>
-      <c r="U1" s="2" t="n"/>
-      <c r="V1" s="2" t="n"/>
-      <c r="W1" s="2" t="n"/>
-      <c r="X1" s="2" t="n"/>
-      <c r="Y1" s="2" t="n"/>
-      <c r="Z1" s="2" t="n"/>
-      <c r="AA1" s="2" t="n"/>
-      <c r="AB1" s="2" t="n"/>
-      <c r="AC1" s="2" t="n"/>
-      <c r="AD1" s="2" t="n"/>
-      <c r="AE1" s="2" t="n"/>
-      <c r="AF1" s="2" t="n"/>
-      <c r="AG1" s="2" t="n"/>
-      <c r="AH1" s="2" t="n"/>
-      <c r="AI1" s="2" t="n"/>
-      <c r="AJ1" s="2" t="n"/>
-      <c r="AK1" s="2" t="n"/>
-      <c r="AL1" s="2" t="n"/>
-      <c r="AM1" s="2" t="n"/>
-      <c r="AN1" s="2" t="n"/>
-      <c r="AO1" s="2" t="n"/>
-      <c r="AP1" s="2" t="n"/>
-      <c r="AQ1" s="2" t="n"/>
-      <c r="AR1" s="2" t="n"/>
-      <c r="AS1" s="2" t="n"/>
-      <c r="AT1" s="2" t="n"/>
-      <c r="AU1" s="2" t="n"/>
-      <c r="AV1" s="2" t="n"/>
-      <c r="AW1" s="2" t="n"/>
-      <c r="AX1" s="2" t="n"/>
-      <c r="AY1" s="2" t="n"/>
-      <c r="AZ1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Data Group</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Data Element</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Required</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>performance.motor_representation.performance.drive_representation.metadata</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n"/>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                data_model</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                schema</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                schema_version</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>1.0.0</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                id</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="4" t="n"/>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                description</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                data_timestamp</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                data_version</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                data_source</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="4" t="n"/>
-      <c r="E11" s="6" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                disclaimer</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="E12" s="6" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="n"/>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                notes</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="4" t="n"/>
-      <c r="E13" s="6" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>performance.motor_representation.performance.drive_representation.description</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="4" t="n"/>
-      <c r="E14" s="6" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>performance.motor_representation.performance.drive_representation.description.product_information</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="4" t="n"/>
-      <c r="E15" s="6" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="n"/>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
           <t xml:space="preserve">                    manufacturer</t>
         </is>
       </c>
@@ -3716,17 +3906,58 @@
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
+          <t>performance.motor_representation.performance.drive_representation.performance.scaling</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="4" t="n"/>
+      <c r="E22" s="6" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    minimum</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n"/>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    maximum</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
           <t>performance.motor_representation.performance.drive_representation.performance.performance_map</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n"/>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>$performance_map</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="6" t="inlineStr">
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -3734,15 +3965,15 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C21" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C21" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"PASSIVE_COOLED,ACTIVE_AIR_COOLED,ACTIVE_LIQUID_COOLED"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1"/>
+    <hyperlink ref="C25" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -3887,6 +4118,7 @@
           <t>lookup_variables</t>
         </is>
       </c>
+      <c r="D2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -3904,6 +4136,11 @@
           <t>efficiency</t>
         </is>
       </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>operation_state</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -3917,6 +4154,11 @@
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3926,21 +4168,25 @@
       <c r="A5" s="5" t="n"/>
       <c r="B5" s="5" t="n"/>
       <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n"/>
       <c r="B6" s="5" t="n"/>
       <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n"/>
       <c r="B7" s="5" t="n"/>
       <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n"/>
       <c r="B8" s="5" t="n"/>
       <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4087,6 +4333,7 @@
         </is>
       </c>
       <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -4109,6 +4356,11 @@
           <t>power_factor</t>
         </is>
       </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>operation_state</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -4127,6 +4379,11 @@
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4137,24 +4394,28 @@
       <c r="B5" s="5" t="n"/>
       <c r="C5" s="5" t="n"/>
       <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n"/>
       <c r="B6" s="5" t="n"/>
       <c r="C6" s="5" t="n"/>
       <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n"/>
       <c r="B7" s="5" t="n"/>
       <c r="C7" s="5" t="n"/>
       <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n"/>
       <c r="B8" s="5" t="n"/>
       <c r="C8" s="5" t="n"/>
       <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4168,7 +4429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ21"/>
+  <dimension ref="A1:AZ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4369,7 +4630,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -4564,17 +4825,58 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
+          <t>performance.mechanical_drive_representation.performance.scaling</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="4" t="n"/>
+      <c r="E21" s="6" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            minimum</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            maximum</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
           <t>performance.mechanical_drive_representation.performance.performance_map</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n"/>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>$performance_map1</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="6" t="inlineStr">
+      <c r="D24" s="4" t="n"/>
+      <c r="E24" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -4582,15 +4884,15 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"V_BELT,COGGED_BELT,SYNCHRONOUS_BELT,GEAR,CHAIN"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1"/>
+    <hyperlink ref="C24" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
